--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,19 +497,17 @@
 #slime #slimeasmr #mixingslime #rainbowslime #asmr #slimemixingrandom #pipingbags #satisfyingslime #mixingmakeup #スライム #데이지슬라임 #AmazingSlime</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10/9/2025</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Upload</t>
+          <t>Uploaded</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>© Copyright by Amazing Slime ☞ No Reup
+#slime #slimeasmr #mixingslime #rainbowslime #asmr #slimemixingrandom #pipingbags #satisfyingslime #mixingmakeup #スライム #데이지슬라임 #AmazingSlime</t>
         </is>
       </c>
     </row>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -506,8 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>© Copyright by Amazing Slime ☞ No Reup
-#slime #slimeasmr #mixingslime #rainbowslime #asmr #slimemixingrandom #pipingbags #satisfyingslime #mixingmakeup #スライム #데이지슬라임 #AmazingSlime</t>
+          <t>https://youtube.com/shorts/NiPpAYWTLWQ</t>
         </is>
       </c>
     </row>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -497,8 +497,16 @@
 #slime #slimeasmr #mixingslime #rainbowslime #asmr #slimemixingrandom #pipingbags #satisfyingslime #mixingmakeup #スライム #데이지슬라임 #AmazingSlime</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10/9/2025</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Uploaded</t>
@@ -506,7 +514,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://youtube.com/shorts/NiPpAYWTLWQ</t>
+          <t>https://youtube.com/shorts/qaZbXUZT7zo</t>
         </is>
       </c>
     </row>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\UP\406 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The king of the pirates</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>To make holding a key convenient, the hold() function can be used as a context manager and passed a string from the pyautogui.KEYBOARD_KEYS such as shift, ctrl, alt, and this key will be held for the duration of the with context block. See KEYBOARD_KEYS.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15:31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://youtube.com/shorts/1q90a0XStHA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zzTESTzz</t>
+          <t>Mushroom Toy Unboxing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://youtube.com/shorts/1q90a0XStHA</t>
+          <t>https://youtube.com/shorts/GN4ZrQ95wO8</t>
         </is>
       </c>
     </row>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,351 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\2BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\4BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\6BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\8BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\10AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\202DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unboxing Toys</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌟 Miniature food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13/9/2026</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Loopy Toys ASMR\136BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Loopy Toys ASMR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>👉 Unboxing 💦 Shin chan ⚡️ review ASMR sound #LoopyToysASMR #shinchan #ASMR #review #Short</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>#LoopyToysASMR #shinchan #LoopyToys #unboxingtoys #ASMR #review #Shorts #YouTubeShorts #brainrot 
+👉 Unboxing 💦 Shin chan ⚡️ review ASMR sound
+m&amp;m candy
+m&amp;m candy bar
+m&amp;m candy dispenser
+m&amp;m
+m&amp;m's
+Thank you for watching the video. Please subscribe to Loopy Toys ASMR to watch our latest videos! Wish you have relaxing moments with Loopy Toys ASMR.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\260AC.mp4"</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1146,7 +1146,11 @@
           <t>11/9/2025</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1156,7 +1160,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1187,7 +1191,11 @@
           <t>12/9/2025</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1197,7 +1205,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1228,7 +1236,11 @@
           <t>12/9/2025</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1238,7 +1250,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1269,7 +1281,11 @@
           <t>12/9/2025</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1279,7 +1295,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1310,7 +1326,11 @@
           <t>13/9/2025</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1320,7 +1340,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Relaxing SquishySquishy</t>
+          <t>Relaxing Squishy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1351,7 +1371,11 @@
           <t>13/9/2025</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Upload</t>
+          <t>Uploaded</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,502 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\152BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>💘 ASMR Slime Squishing so Satisfying Relaxing #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>🍡💘 ASMR Slime Squishing so Satisfying Nutella 🍩
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\154BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>❤️🧡💛💚💙💜 ASMR Slime Squishing 💝 so Satisfying #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>❤️🧡💛💚💙💜 ASMR Slime Squishing 💝 so Satisfying
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\156BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>🍡💘 ASMR Slime Squishing so Satisfying Relaxing #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>🍡💘 ASMR Slime Squishing so Satisfying Nutella 🍩
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\158BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>💦 Topping slime 🧼 dried floam 💥 mixing ASMR  #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>💦 Topping slime 🧼 dried floam 💥 mixing ASMR
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\160BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>❤️🧡💛💚💙💜 ASMR Slime Squishing 💝 so Satisfying #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>❤️🧡💛💚💙💜 ASMR Slime Squishing 💝 so Satisfying
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Slime Squishing\162BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Slime Squishing</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🤩 ASMR Slime Squishing so Satisfying Relaxing #SlimeSquishing #slimeasmr #asmrslime #satisfying</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>🤩 ASMR Slime Squishing so Satisfying
+#SlimeSquishing #Slime #ASMR #Satisfying #Shorts #YouTubeShorts
+#pipingbags  #slimeasmr #asmrslime 
+slime asmr, asmr slime, satisfying
+Thank you for watching the video. Please subscribe to Slime Squishing to watch our latest videos! Wish you have relaxing moments with Slime Squishing.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\130AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>🍎🎈 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\132AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">💥👉 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\134AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🎉👉 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\136AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">💦🧁 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\138AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">👀 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Relaxing Squishy\140AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Relaxing SquishySquishy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">💞💕 Relaxing Squishy #bubblesound #stressballasmr #crunchystressballasmr #bubbleasmr
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>#RelaxingSquishy #asmr #satisfying #relaxing #mixing #relax #stressrelief #bubblesound #stressballasmr #squishytungtungsahur #crunchystressballasmr #bubbleasmr
+bubble sound, stress ball asmr, squishy tung tung sahur, crunchy stress ball asmr, bubble asmr
+💬 What did you think of the video?
+👇 Drop your thoughts in the comments below!
+👍 If you enjoyed it, don’t forget to give it a like
+🔔 Subscribe and turn on the bell so you never miss a new upload!
+📢 Share this video with your friends too!
+Thanks for watching and supporting Relaxing Squishy! 💖</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,11 +507,6 @@
           <t>Uploaded</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://youtube.com/shorts/qaZbXUZT7zo</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,11 +544,6 @@
           <t>Uploaded</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://youtube.com/shorts/GN4ZrQ95wO8</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -573,7 +558,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>⚡🌟 Miniature food &amp; fruits ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+          <t>test video</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +583,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>18:00</t>
+          <t>Upload</t>
         </is>
       </c>
     </row>
@@ -648,11 +628,6 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -695,11 +670,6 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -742,11 +712,6 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -789,11 +754,6 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -834,11 +794,6 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>Failed</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2:00</t>
         </is>
       </c>
     </row>
@@ -885,11 +840,6 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -897,13 +847,16 @@
           <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\260AC.mp4"</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test_upload_short/temp_upload.xlsx
+++ b/test_upload_short/temp_upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Publish date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Publish hour</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Publish date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -494,12 +494,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>10/9/2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>15:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10/9/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>15:31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11/9/2026</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>18:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11/9/2026</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11/9/2026</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12/9/2026</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -699,12 +699,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>18:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12/9/2026</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>12/9/2026</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>12/9/2026</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>13/9/2026</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>13/9/2026</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -827,12 +827,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>18:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>11/9/2026</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>11/9/2026</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>11/9/2026</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>10:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>22:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>13/9/2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>10:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>13/9/2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>21:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>11/9/2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>9:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>21:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>12/9/2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1318,12 +1318,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>13/9/2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1363,17 +1363,1401 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>9:00</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\390 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\392 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>How to Make Slime with Clay &amp; Surprise Eggs ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\394 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\396 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>How to Make Slime with Clay &amp; Surprise Eggs ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\398 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\450 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>How to Make Slime with Clay &amp; Surprise Eggs ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>13/9/2025</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Uploaded</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\452 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\454 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>How to Make Slime with Clay &amp; Surprise Eggs ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\456 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\458 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>How to Make Slime with Clay &amp; Surprise Eggs ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Amazing Slime\462 number A.mp4"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Amazing Slime</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying #howtomakeslimewithclay #slimeasmr</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>👉🐾 Paw Patrol Slime &amp; Clay Surprise Eggs! ASMR Satisfying 
+paw patrol slime, surprise eggs, how to make slime with clay, slime asmr
+#pawpatrolslime #surpriseeggs #howtomakeslimewithclay #slimeasmr
+© Copyright by Amazing Slime ☞ No Reup
+#slime #mixingslime #rainbowslime #asmr #slimemixingrandom #satisfyingslime #AmazingSlime #pawpatrol</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\410-411.mp4"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\412-413.mp4"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11/9/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\414-415.mp4"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\416-417.mp4"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\418-419.mp4"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\420-421.mp4"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\422-423.mp4"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\424-425.mp4"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\426-427.mp4"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\428-429.mp4"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\zzTESTzz\430-431.mp4"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>zzTESTzz</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>👉 Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz 💥⚡</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Crushing things with car, Crushing crunchy, Crushing soft things, Car experiment | zzTESTzz
+#crushingthingswithcar #crushingrunchy #crushingsoftthings #carexperiment
+More Car Crushing &amp; Crunchy 👉 https://www.youtube.com/playlist?list=PLy7zx__WK1gkgj5liblWoC-LjGr0PLVkB
+👇 Don’t forget to LIKE, COMMENT, and SUBSCRIBE for more awesome crushing experiments and satisfying moments!
+💥 Got a fun idea for what we should crush next? Drop it in the comments!
+🔔 Turn on the bell so you never miss a new car vs object challenge from zzTESTzz!
+🎥 New videos full of crunchy, soft, and colorful explosions are coming your way—stay tuned!</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14/9/2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\206DA.mp4"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\223DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\226DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\231DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12/9/2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\227DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\Short Toy\Natra\Hoàn thiện\234DC.mp4"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mushroom Toy Unboxing</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>👉 Shin chan Nezha 🌟 ASMR review #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>#MushroomToysUnboxing #Nezha #Tungtungtungsahur #MushroomToys #unboxingtoys #ASMR #review #Shorts #tralalerotralala #kinderjoy #Shinchantoys #Shinchanfigures #cockroach #shinchan 
+ 👍 👍👉 Shin chan Nezha 🌟 ASMR review
+kinder joy, Shin-chan toys, Shin-chan figures, cockroach, shin chan
+Thank you for watching the video. Please subscribe to Mushroom Toy Unboxing to watch our latest videos! Wish you have relaxing moments with Mushroom Toy Unboxing.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13/9/2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Uploaded</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\12AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13/9/2026</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\14AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13/9/2026</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\16BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡👉 Miniature food &amp; fruits #crong ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14/9/2026</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\18AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>💣🔥 Food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯 #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender #shinchan #nezha 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+💣🔥 Food &amp; fruits #shinchan #nezha ASMR Sound Review 🤯
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14/9/2026</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Unboxing Toys\20AA.mp4"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>⚡🌀 Food &amp; fruits #tungtungtungsahur ASMR Sound Review #cooker #cookingtoys #ricecooker #kitchentoys</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>#unboxingtoys #asmrsounds #ASMR #review #Shorts #YouTubeShorts #cuteprogrammer #blender #shinchan #nezha 
+#cooker #cookingtoys #ricecooker #kitchentoys #cookingtoyskitchen #fogão #panelaelétricadearroz #brinquedosdecozinha #brinquedosdecozinhaparacozinhar
+⚡🌀 Food &amp; fruits #tungtungtungsahur ASMR Sound Review
+cooker, cooking toys, rice cooker, kitchen toys, cooking toys kitchen, fogão, brinquedos de cozinha, panela elétrica de arroz, brinquedos de cozinha, brinquedos de cozinha para cozinhar
+Thank you for watching my video. Hope the video helps you relax. 
+Don't forget to Like 👍 Share 💘 and Subscribe 🌈 to see my latest videos on Unboxing Toys Channel.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14/9/2026</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>"\\192.168.1.92\Ổ Sever Mới\Định\Satisfy ASMR\New folder\45s - MUSIC\Tuấn\Loopy Toys ASMR\154BA.mp4"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Loopy Toys ASMR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>👉 Unboxing 💦 Shin chan ⚡️ review ASMR sound #LoopyToysASMR #shinchan #ASMR #review #Short</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>#LoopyToysASMR #shinchan #LoopyToys #unboxingtoys #ASMR #review #Shorts #YouTubeShorts #brainrot 
+👉 Unboxing 💦 Shin chan ⚡️ review ASMR sound
+m&amp;m candy
+m&amp;m candy bar
+m&amp;m candy dispenser
+m&amp;m
+m&amp;m's
+Thank you for watching the video. Please subscribe to Loopy Toys ASMR to watch our latest videos! Wish you have relaxing moments with Loopy Toys ASMR.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Upload</t>
         </is>
       </c>
     </row>
